--- a/it0/calendar.xlsx
+++ b/it0/calendar.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26019"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F12F0312-8691-4627-A7A8-17A238C5625D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{153FFCCC-56B7-420B-B122-8F6C07F7990D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
   <si>
     <t>UC1</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>T(7)</t>
-  </si>
-  <si>
-    <t>AR(2)</t>
   </si>
   <si>
     <t>D(10)</t>
@@ -652,7 +649,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1086,6 +1083,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
@@ -1155,7 +1165,7 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1202,20 +1212,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1226,20 +1233,32 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1247,20 +1266,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1298,82 +1371,22 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1739,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D038F076-FA9B-4745-827B-E05F1A315F0E}">
   <dimension ref="A1:MI67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:Q25"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z55" sqref="B55:BM57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="14.45"/>
@@ -1962,37 +1975,37 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="46" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="44" t="s">
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="45"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="37"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="19"/>
       <c r="AA2" s="19"/>
@@ -2025,45 +2038,45 @@
         <v>5</v>
       </c>
       <c r="B3" s="14"/>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="87" t="s">
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="46" t="s">
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="46" t="s">
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="45"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="37"/>
       <c r="AN3" s="27"/>
       <c r="AO3" s="31"/>
       <c r="AP3" s="27"/>
@@ -2296,36 +2309,36 @@
       <c r="I6" s="29"/>
       <c r="Q6" s="29"/>
       <c r="Y6" s="29"/>
-      <c r="Z6" s="39" t="s">
+      <c r="Z6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="73"/>
-      <c r="AE6" s="87" t="s">
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="37"/>
-      <c r="AK6" s="37"/>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="90" t="s">
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="45"/>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="52"/>
+      <c r="AN6" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="AO6" s="44"/>
-      <c r="AP6" s="44"/>
-      <c r="AQ6" s="44"/>
-      <c r="AR6" s="44"/>
-      <c r="AS6" s="44"/>
-      <c r="AT6" s="44"/>
-      <c r="AU6" s="45"/>
-      <c r="AV6" s="46"/>
-      <c r="AW6" s="91"/>
+      <c r="AO6" s="36"/>
+      <c r="AP6" s="36"/>
+      <c r="AQ6" s="36"/>
+      <c r="AR6" s="36"/>
+      <c r="AS6" s="36"/>
+      <c r="AT6" s="36"/>
+      <c r="AU6" s="37"/>
+      <c r="AV6" s="34"/>
+      <c r="AW6" s="35"/>
       <c r="AX6" s="14"/>
     </row>
     <row r="7" spans="1:347" s="2" customFormat="1" ht="16.5">
@@ -2394,20 +2407,20 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
-      <c r="AN9" s="39" t="s">
+      <c r="AN9" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="AO9" s="40"/>
-      <c r="AP9" s="40"/>
-      <c r="AQ9" s="41"/>
-      <c r="AR9" s="42" t="s">
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="39"/>
+      <c r="AQ9" s="40"/>
+      <c r="AR9" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AS9" s="37"/>
-      <c r="AT9" s="37"/>
-      <c r="AU9" s="37"/>
-      <c r="AV9" s="37"/>
-      <c r="AW9" s="38"/>
+      <c r="AS9" s="45"/>
+      <c r="AT9" s="45"/>
+      <c r="AU9" s="45"/>
+      <c r="AV9" s="45"/>
+      <c r="AW9" s="52"/>
       <c r="AX9" s="14"/>
       <c r="AY9" s="2"/>
       <c r="AZ9" s="2"/>
@@ -3201,119 +3214,119 @@
       <c r="CW13" s="2"/>
     </row>
     <row r="14" spans="1:347" s="2" customFormat="1">
-      <c r="B14" s="72">
+      <c r="B14" s="62">
         <v>23</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="72">
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="62">
         <v>24</v>
       </c>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="72">
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="62">
         <v>25</v>
       </c>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="72">
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="62">
         <v>28</v>
       </c>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="72">
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="62">
         <v>29</v>
       </c>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="47"/>
-      <c r="AL14" s="47"/>
-      <c r="AM14" s="47"/>
-      <c r="AN14" s="47"/>
-      <c r="AO14" s="48"/>
-      <c r="AP14" s="72">
+      <c r="AI14" s="50"/>
+      <c r="AJ14" s="50"/>
+      <c r="AK14" s="50"/>
+      <c r="AL14" s="50"/>
+      <c r="AM14" s="50"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="62">
         <v>30</v>
       </c>
-      <c r="AQ14" s="47"/>
-      <c r="AR14" s="47"/>
-      <c r="AS14" s="47"/>
-      <c r="AT14" s="47"/>
-      <c r="AU14" s="47"/>
-      <c r="AV14" s="47"/>
-      <c r="AW14" s="47"/>
+      <c r="AQ14" s="50"/>
+      <c r="AR14" s="50"/>
+      <c r="AS14" s="50"/>
+      <c r="AT14" s="50"/>
+      <c r="AU14" s="50"/>
+      <c r="AV14" s="50"/>
+      <c r="AW14" s="50"/>
       <c r="AX14" s="14"/>
     </row>
     <row r="15" spans="1:347" s="2" customFormat="1" ht="14.45" customHeight="1">
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
-      <c r="AE15" s="67"/>
-      <c r="AF15" s="67"/>
-      <c r="AG15" s="67"/>
-      <c r="AH15" s="67"/>
-      <c r="AI15" s="67"/>
-      <c r="AJ15" s="67"/>
-      <c r="AK15" s="67"/>
-      <c r="AL15" s="67"/>
-      <c r="AM15" s="67"/>
-      <c r="AN15" s="67"/>
-      <c r="AO15" s="67"/>
-      <c r="AP15" s="67"/>
-      <c r="AQ15" s="67"/>
-      <c r="AR15" s="67"/>
-      <c r="AS15" s="67"/>
-      <c r="AT15" s="67"/>
-      <c r="AU15" s="67"/>
-      <c r="AV15" s="67"/>
-      <c r="AW15" s="80"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="64"/>
+      <c r="AE15" s="64"/>
+      <c r="AF15" s="64"/>
+      <c r="AG15" s="64"/>
+      <c r="AH15" s="64"/>
+      <c r="AI15" s="64"/>
+      <c r="AJ15" s="64"/>
+      <c r="AK15" s="64"/>
+      <c r="AL15" s="64"/>
+      <c r="AM15" s="64"/>
+      <c r="AN15" s="64"/>
+      <c r="AO15" s="64"/>
+      <c r="AP15" s="64"/>
+      <c r="AQ15" s="64"/>
+      <c r="AR15" s="64"/>
+      <c r="AS15" s="64"/>
+      <c r="AT15" s="64"/>
+      <c r="AU15" s="64"/>
+      <c r="AV15" s="64"/>
+      <c r="AW15" s="65"/>
       <c r="AX15" s="20"/>
       <c r="AY15" s="20"/>
       <c r="AZ15" s="20"/>
@@ -3368,54 +3381,54 @@
       <c r="CW15" s="20"/>
     </row>
     <row r="16" spans="1:347" s="2" customFormat="1" ht="14.45" customHeight="1">
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69"/>
-      <c r="AK16" s="69"/>
-      <c r="AL16" s="69"/>
-      <c r="AM16" s="69"/>
-      <c r="AN16" s="69"/>
-      <c r="AO16" s="69"/>
-      <c r="AP16" s="69"/>
-      <c r="AQ16" s="69"/>
-      <c r="AR16" s="69"/>
-      <c r="AS16" s="69"/>
-      <c r="AT16" s="69"/>
-      <c r="AU16" s="69"/>
-      <c r="AV16" s="69"/>
-      <c r="AW16" s="81"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="67"/>
+      <c r="AG16" s="67"/>
+      <c r="AH16" s="67"/>
+      <c r="AI16" s="67"/>
+      <c r="AJ16" s="67"/>
+      <c r="AK16" s="67"/>
+      <c r="AL16" s="67"/>
+      <c r="AM16" s="67"/>
+      <c r="AN16" s="67"/>
+      <c r="AO16" s="67"/>
+      <c r="AP16" s="67"/>
+      <c r="AQ16" s="67"/>
+      <c r="AR16" s="67"/>
+      <c r="AS16" s="67"/>
+      <c r="AT16" s="67"/>
+      <c r="AU16" s="67"/>
+      <c r="AV16" s="67"/>
+      <c r="AW16" s="68"/>
       <c r="AX16" s="20"/>
       <c r="AY16" s="20"/>
       <c r="AZ16" s="20"/>
@@ -3470,54 +3483,54 @@
       <c r="CW16" s="20"/>
     </row>
     <row r="17" spans="1:129" ht="14.45" customHeight="1">
-      <c r="B17" s="70"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="71"/>
-      <c r="AD17" s="71"/>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="71"/>
-      <c r="AG17" s="71"/>
-      <c r="AH17" s="71"/>
-      <c r="AI17" s="71"/>
-      <c r="AJ17" s="71"/>
-      <c r="AK17" s="71"/>
-      <c r="AL17" s="71"/>
-      <c r="AM17" s="71"/>
-      <c r="AN17" s="71"/>
-      <c r="AO17" s="71"/>
-      <c r="AP17" s="71"/>
-      <c r="AQ17" s="71"/>
-      <c r="AR17" s="71"/>
-      <c r="AS17" s="71"/>
-      <c r="AT17" s="71"/>
-      <c r="AU17" s="71"/>
-      <c r="AV17" s="71"/>
-      <c r="AW17" s="82"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="70"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="70"/>
+      <c r="AK17" s="70"/>
+      <c r="AL17" s="70"/>
+      <c r="AM17" s="70"/>
+      <c r="AN17" s="70"/>
+      <c r="AO17" s="70"/>
+      <c r="AP17" s="70"/>
+      <c r="AQ17" s="70"/>
+      <c r="AR17" s="70"/>
+      <c r="AS17" s="70"/>
+      <c r="AT17" s="70"/>
+      <c r="AU17" s="70"/>
+      <c r="AV17" s="70"/>
+      <c r="AW17" s="71"/>
       <c r="AX17" s="20"/>
       <c r="AY17" s="20"/>
       <c r="AZ17" s="20"/>
@@ -4236,40 +4249,40 @@
       <c r="B25" s="14"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42" t="s">
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="44" t="s">
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="46" t="s">
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="45"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="37"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="3"/>
@@ -4374,11 +4387,11 @@
       <c r="A26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -4538,48 +4551,48 @@
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
-      <c r="AE27" s="49" t="s">
+      <c r="AE27" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="AF27" s="50"/>
-      <c r="AG27" s="50"/>
-      <c r="AH27" s="51" t="s">
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="42"/>
+      <c r="AH27" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="AI27" s="52"/>
-      <c r="AJ27" s="52"/>
-      <c r="AK27" s="52"/>
-      <c r="AL27" s="52"/>
-      <c r="AM27" s="52"/>
-      <c r="AN27" s="52"/>
-      <c r="AO27" s="52"/>
-      <c r="AP27" s="52"/>
-      <c r="AQ27" s="52"/>
-      <c r="AR27" s="52"/>
-      <c r="AS27" s="52"/>
-      <c r="AT27" s="53"/>
-      <c r="AU27" s="46" t="s">
+      <c r="AI27" s="88"/>
+      <c r="AJ27" s="88"/>
+      <c r="AK27" s="88"/>
+      <c r="AL27" s="88"/>
+      <c r="AM27" s="88"/>
+      <c r="AN27" s="88"/>
+      <c r="AO27" s="88"/>
+      <c r="AP27" s="88"/>
+      <c r="AQ27" s="88"/>
+      <c r="AR27" s="88"/>
+      <c r="AS27" s="88"/>
+      <c r="AT27" s="89"/>
+      <c r="AU27" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AV27" s="44"/>
-      <c r="AW27" s="44"/>
-      <c r="AX27" s="44"/>
-      <c r="AY27" s="44"/>
-      <c r="AZ27" s="44"/>
-      <c r="BA27" s="44"/>
-      <c r="BB27" s="44"/>
-      <c r="BC27" s="44"/>
-      <c r="BD27" s="44"/>
-      <c r="BE27" s="45"/>
-      <c r="BF27" s="46" t="s">
+      <c r="AV27" s="36"/>
+      <c r="AW27" s="36"/>
+      <c r="AX27" s="36"/>
+      <c r="AY27" s="36"/>
+      <c r="AZ27" s="36"/>
+      <c r="BA27" s="36"/>
+      <c r="BB27" s="36"/>
+      <c r="BC27" s="36"/>
+      <c r="BD27" s="36"/>
+      <c r="BE27" s="37"/>
+      <c r="BF27" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="BG27" s="44"/>
-      <c r="BH27" s="44"/>
-      <c r="BI27" s="44"/>
-      <c r="BJ27" s="44"/>
-      <c r="BK27" s="44"/>
-      <c r="BL27" s="45"/>
+      <c r="BG27" s="36"/>
+      <c r="BH27" s="36"/>
+      <c r="BI27" s="36"/>
+      <c r="BJ27" s="36"/>
+      <c r="BK27" s="36"/>
+      <c r="BL27" s="37"/>
       <c r="BM27" s="3"/>
       <c r="BN27" s="14"/>
       <c r="BO27" s="2"/>
@@ -4666,42 +4679,42 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="39" t="s">
+      <c r="R28" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28" s="42"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="T28" s="41"/>
-      <c r="U28" s="42" t="s">
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="45"/>
+      <c r="AD28" s="46"/>
+      <c r="AE28" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF28" s="36"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="36"/>
+      <c r="AI28" s="36"/>
+      <c r="AJ28" s="36"/>
+      <c r="AK28" s="36"/>
+      <c r="AL28" s="36"/>
+      <c r="AM28" s="37"/>
+      <c r="AN28" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="43"/>
-      <c r="AE28" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF28" s="44"/>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
-      <c r="AM28" s="45"/>
-      <c r="AN28" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO28" s="44"/>
-      <c r="AP28" s="44"/>
-      <c r="AQ28" s="44"/>
-      <c r="AR28" s="44"/>
-      <c r="AS28" s="45"/>
+      <c r="AO28" s="36"/>
+      <c r="AP28" s="36"/>
+      <c r="AQ28" s="36"/>
+      <c r="AR28" s="36"/>
+      <c r="AS28" s="37"/>
       <c r="AT28" s="2"/>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
@@ -4791,29 +4804,29 @@
       <c r="A29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="46" t="s">
+      <c r="B29" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="45"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -4975,29 +4988,29 @@
       <c r="AR30" s="2"/>
       <c r="AS30" s="2"/>
       <c r="AT30" s="27"/>
-      <c r="AU30" s="34" t="s">
+      <c r="AU30" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="AV30" s="35"/>
-      <c r="AW30" s="36"/>
-      <c r="AX30" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="AY30" s="37"/>
-      <c r="AZ30" s="37"/>
-      <c r="BA30" s="37"/>
-      <c r="BB30" s="37"/>
-      <c r="BC30" s="37"/>
-      <c r="BD30" s="37"/>
-      <c r="BE30" s="37"/>
-      <c r="BF30" s="37"/>
-      <c r="BG30" s="37"/>
-      <c r="BH30" s="37"/>
-      <c r="BI30" s="37"/>
-      <c r="BJ30" s="37"/>
-      <c r="BK30" s="37"/>
-      <c r="BL30" s="37"/>
-      <c r="BM30" s="38"/>
+      <c r="AV30" s="91"/>
+      <c r="AW30" s="92"/>
+      <c r="AX30" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY30" s="45"/>
+      <c r="AZ30" s="45"/>
+      <c r="BA30" s="45"/>
+      <c r="BB30" s="45"/>
+      <c r="BC30" s="45"/>
+      <c r="BD30" s="45"/>
+      <c r="BE30" s="45"/>
+      <c r="BF30" s="45"/>
+      <c r="BG30" s="45"/>
+      <c r="BH30" s="45"/>
+      <c r="BI30" s="45"/>
+      <c r="BJ30" s="45"/>
+      <c r="BK30" s="45"/>
+      <c r="BL30" s="45"/>
+      <c r="BM30" s="52"/>
       <c r="BN30" s="14"/>
       <c r="BO30" s="2"/>
       <c r="BP30" s="2"/>
@@ -5454,86 +5467,86 @@
       <c r="DY33" s="2"/>
     </row>
     <row r="34" spans="1:129">
-      <c r="B34" s="72">
+      <c r="B34" s="62">
         <v>1</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="47">
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="50">
         <v>2</v>
       </c>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="86">
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="48">
         <v>5</v>
       </c>
-      <c r="S34" s="86"/>
-      <c r="T34" s="86"/>
-      <c r="U34" s="86"/>
-      <c r="V34" s="86"/>
-      <c r="W34" s="86"/>
-      <c r="X34" s="86"/>
-      <c r="Y34" s="86"/>
-      <c r="Z34" s="88">
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="47">
         <v>7</v>
       </c>
-      <c r="AA34" s="86"/>
-      <c r="AB34" s="86"/>
-      <c r="AC34" s="86"/>
-      <c r="AD34" s="86"/>
-      <c r="AE34" s="86"/>
-      <c r="AF34" s="86"/>
-      <c r="AG34" s="89"/>
-      <c r="AH34" s="47">
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="48"/>
+      <c r="AC34" s="48"/>
+      <c r="AD34" s="48"/>
+      <c r="AE34" s="48"/>
+      <c r="AF34" s="48"/>
+      <c r="AG34" s="49"/>
+      <c r="AH34" s="50">
         <v>9</v>
       </c>
-      <c r="AI34" s="47"/>
-      <c r="AJ34" s="47"/>
-      <c r="AK34" s="47"/>
-      <c r="AL34" s="47"/>
-      <c r="AM34" s="47"/>
-      <c r="AN34" s="47"/>
-      <c r="AO34" s="48"/>
-      <c r="AP34" s="47">
+      <c r="AI34" s="50"/>
+      <c r="AJ34" s="50"/>
+      <c r="AK34" s="50"/>
+      <c r="AL34" s="50"/>
+      <c r="AM34" s="50"/>
+      <c r="AN34" s="50"/>
+      <c r="AO34" s="51"/>
+      <c r="AP34" s="50">
         <v>12</v>
       </c>
-      <c r="AQ34" s="47"/>
-      <c r="AR34" s="47"/>
-      <c r="AS34" s="47"/>
-      <c r="AT34" s="47"/>
-      <c r="AU34" s="47"/>
-      <c r="AV34" s="47"/>
-      <c r="AW34" s="48"/>
-      <c r="AX34" s="47">
+      <c r="AQ34" s="50"/>
+      <c r="AR34" s="50"/>
+      <c r="AS34" s="50"/>
+      <c r="AT34" s="50"/>
+      <c r="AU34" s="50"/>
+      <c r="AV34" s="50"/>
+      <c r="AW34" s="51"/>
+      <c r="AX34" s="50">
         <v>13</v>
       </c>
-      <c r="AY34" s="47"/>
-      <c r="AZ34" s="47"/>
-      <c r="BA34" s="47"/>
-      <c r="BB34" s="47"/>
-      <c r="BC34" s="47"/>
-      <c r="BD34" s="47"/>
-      <c r="BE34" s="48"/>
-      <c r="BF34" s="47">
+      <c r="AY34" s="50"/>
+      <c r="AZ34" s="50"/>
+      <c r="BA34" s="50"/>
+      <c r="BB34" s="50"/>
+      <c r="BC34" s="50"/>
+      <c r="BD34" s="50"/>
+      <c r="BE34" s="51"/>
+      <c r="BF34" s="50">
         <v>14</v>
       </c>
-      <c r="BG34" s="47"/>
-      <c r="BH34" s="47"/>
-      <c r="BI34" s="47"/>
-      <c r="BJ34" s="47"/>
-      <c r="BK34" s="47"/>
-      <c r="BL34" s="47"/>
-      <c r="BM34" s="47"/>
+      <c r="BG34" s="50"/>
+      <c r="BH34" s="50"/>
+      <c r="BI34" s="50"/>
+      <c r="BJ34" s="50"/>
+      <c r="BK34" s="50"/>
+      <c r="BL34" s="50"/>
+      <c r="BM34" s="50"/>
       <c r="BN34" s="14"/>
       <c r="BO34" s="2"/>
       <c r="BP34" s="2"/>
@@ -5600,72 +5613,72 @@
       <c r="DY34" s="2"/>
     </row>
     <row r="35" spans="1:129" ht="14.45" customHeight="1">
-      <c r="B35" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="67"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="67"/>
-      <c r="S35" s="67"/>
-      <c r="T35" s="67"/>
-      <c r="U35" s="67"/>
-      <c r="V35" s="67"/>
-      <c r="W35" s="67"/>
-      <c r="X35" s="67"/>
-      <c r="Y35" s="67"/>
-      <c r="Z35" s="67"/>
-      <c r="AA35" s="67"/>
-      <c r="AB35" s="67"/>
-      <c r="AC35" s="67"/>
-      <c r="AD35" s="67"/>
-      <c r="AE35" s="67"/>
-      <c r="AF35" s="67"/>
-      <c r="AG35" s="67"/>
-      <c r="AH35" s="67"/>
-      <c r="AI35" s="67"/>
-      <c r="AJ35" s="67"/>
-      <c r="AK35" s="67"/>
-      <c r="AL35" s="67"/>
-      <c r="AM35" s="67"/>
-      <c r="AN35" s="67"/>
-      <c r="AO35" s="67"/>
-      <c r="AP35" s="67"/>
-      <c r="AQ35" s="67"/>
-      <c r="AR35" s="67"/>
-      <c r="AS35" s="67"/>
-      <c r="AT35" s="67"/>
-      <c r="AU35" s="67"/>
-      <c r="AV35" s="67"/>
-      <c r="AW35" s="67"/>
-      <c r="AX35" s="67"/>
-      <c r="AY35" s="67"/>
-      <c r="AZ35" s="67"/>
-      <c r="BA35" s="67"/>
-      <c r="BB35" s="67"/>
-      <c r="BC35" s="67"/>
-      <c r="BD35" s="67"/>
-      <c r="BE35" s="67"/>
-      <c r="BF35" s="67"/>
-      <c r="BG35" s="67"/>
-      <c r="BH35" s="67"/>
-      <c r="BI35" s="67"/>
-      <c r="BJ35" s="67"/>
-      <c r="BK35" s="67"/>
-      <c r="BL35" s="67"/>
-      <c r="BM35" s="67"/>
+      <c r="B35" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="64"/>
+      <c r="Z35" s="64"/>
+      <c r="AA35" s="64"/>
+      <c r="AB35" s="64"/>
+      <c r="AC35" s="64"/>
+      <c r="AD35" s="64"/>
+      <c r="AE35" s="64"/>
+      <c r="AF35" s="64"/>
+      <c r="AG35" s="64"/>
+      <c r="AH35" s="64"/>
+      <c r="AI35" s="64"/>
+      <c r="AJ35" s="64"/>
+      <c r="AK35" s="64"/>
+      <c r="AL35" s="64"/>
+      <c r="AM35" s="64"/>
+      <c r="AN35" s="64"/>
+      <c r="AO35" s="64"/>
+      <c r="AP35" s="64"/>
+      <c r="AQ35" s="64"/>
+      <c r="AR35" s="64"/>
+      <c r="AS35" s="64"/>
+      <c r="AT35" s="64"/>
+      <c r="AU35" s="64"/>
+      <c r="AV35" s="64"/>
+      <c r="AW35" s="64"/>
+      <c r="AX35" s="64"/>
+      <c r="AY35" s="64"/>
+      <c r="AZ35" s="64"/>
+      <c r="BA35" s="64"/>
+      <c r="BB35" s="64"/>
+      <c r="BC35" s="64"/>
+      <c r="BD35" s="64"/>
+      <c r="BE35" s="64"/>
+      <c r="BF35" s="64"/>
+      <c r="BG35" s="64"/>
+      <c r="BH35" s="64"/>
+      <c r="BI35" s="64"/>
+      <c r="BJ35" s="64"/>
+      <c r="BK35" s="64"/>
+      <c r="BL35" s="64"/>
+      <c r="BM35" s="64"/>
       <c r="BN35" s="21"/>
       <c r="BO35" s="20"/>
       <c r="BP35" s="20"/>
@@ -5732,70 +5745,70 @@
       <c r="DY35" s="20"/>
     </row>
     <row r="36" spans="1:129" ht="14.45" customHeight="1">
-      <c r="B36" s="68"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="69"/>
-      <c r="R36" s="69"/>
-      <c r="S36" s="69"/>
-      <c r="T36" s="69"/>
-      <c r="U36" s="69"/>
-      <c r="V36" s="69"/>
-      <c r="W36" s="69"/>
-      <c r="X36" s="69"/>
-      <c r="Y36" s="69"/>
-      <c r="Z36" s="69"/>
-      <c r="AA36" s="69"/>
-      <c r="AB36" s="69"/>
-      <c r="AC36" s="69"/>
-      <c r="AD36" s="69"/>
-      <c r="AE36" s="69"/>
-      <c r="AF36" s="69"/>
-      <c r="AG36" s="69"/>
-      <c r="AH36" s="69"/>
-      <c r="AI36" s="69"/>
-      <c r="AJ36" s="69"/>
-      <c r="AK36" s="69"/>
-      <c r="AL36" s="69"/>
-      <c r="AM36" s="69"/>
-      <c r="AN36" s="69"/>
-      <c r="AO36" s="69"/>
-      <c r="AP36" s="69"/>
-      <c r="AQ36" s="69"/>
-      <c r="AR36" s="69"/>
-      <c r="AS36" s="69"/>
-      <c r="AT36" s="69"/>
-      <c r="AU36" s="69"/>
-      <c r="AV36" s="69"/>
-      <c r="AW36" s="69"/>
-      <c r="AX36" s="69"/>
-      <c r="AY36" s="69"/>
-      <c r="AZ36" s="69"/>
-      <c r="BA36" s="69"/>
-      <c r="BB36" s="69"/>
-      <c r="BC36" s="69"/>
-      <c r="BD36" s="69"/>
-      <c r="BE36" s="69"/>
-      <c r="BF36" s="69"/>
-      <c r="BG36" s="69"/>
-      <c r="BH36" s="69"/>
-      <c r="BI36" s="69"/>
-      <c r="BJ36" s="69"/>
-      <c r="BK36" s="69"/>
-      <c r="BL36" s="69"/>
-      <c r="BM36" s="69"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="67"/>
+      <c r="V36" s="67"/>
+      <c r="W36" s="67"/>
+      <c r="X36" s="67"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="67"/>
+      <c r="AA36" s="67"/>
+      <c r="AB36" s="67"/>
+      <c r="AC36" s="67"/>
+      <c r="AD36" s="67"/>
+      <c r="AE36" s="67"/>
+      <c r="AF36" s="67"/>
+      <c r="AG36" s="67"/>
+      <c r="AH36" s="67"/>
+      <c r="AI36" s="67"/>
+      <c r="AJ36" s="67"/>
+      <c r="AK36" s="67"/>
+      <c r="AL36" s="67"/>
+      <c r="AM36" s="67"/>
+      <c r="AN36" s="67"/>
+      <c r="AO36" s="67"/>
+      <c r="AP36" s="67"/>
+      <c r="AQ36" s="67"/>
+      <c r="AR36" s="67"/>
+      <c r="AS36" s="67"/>
+      <c r="AT36" s="67"/>
+      <c r="AU36" s="67"/>
+      <c r="AV36" s="67"/>
+      <c r="AW36" s="67"/>
+      <c r="AX36" s="67"/>
+      <c r="AY36" s="67"/>
+      <c r="AZ36" s="67"/>
+      <c r="BA36" s="67"/>
+      <c r="BB36" s="67"/>
+      <c r="BC36" s="67"/>
+      <c r="BD36" s="67"/>
+      <c r="BE36" s="67"/>
+      <c r="BF36" s="67"/>
+      <c r="BG36" s="67"/>
+      <c r="BH36" s="67"/>
+      <c r="BI36" s="67"/>
+      <c r="BJ36" s="67"/>
+      <c r="BK36" s="67"/>
+      <c r="BL36" s="67"/>
+      <c r="BM36" s="67"/>
       <c r="BN36" s="21"/>
       <c r="BO36" s="20"/>
       <c r="BP36" s="20"/>
@@ -5862,70 +5875,70 @@
       <c r="DY36" s="20"/>
     </row>
     <row r="37" spans="1:129" ht="14.45" customHeight="1">
-      <c r="B37" s="70"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="71"/>
-      <c r="T37" s="71"/>
-      <c r="U37" s="71"/>
-      <c r="V37" s="71"/>
-      <c r="W37" s="71"/>
-      <c r="X37" s="71"/>
-      <c r="Y37" s="71"/>
-      <c r="Z37" s="71"/>
-      <c r="AA37" s="71"/>
-      <c r="AB37" s="71"/>
-      <c r="AC37" s="71"/>
-      <c r="AD37" s="71"/>
-      <c r="AE37" s="71"/>
-      <c r="AF37" s="71"/>
-      <c r="AG37" s="71"/>
-      <c r="AH37" s="71"/>
-      <c r="AI37" s="71"/>
-      <c r="AJ37" s="71"/>
-      <c r="AK37" s="71"/>
-      <c r="AL37" s="71"/>
-      <c r="AM37" s="71"/>
-      <c r="AN37" s="71"/>
-      <c r="AO37" s="71"/>
-      <c r="AP37" s="71"/>
-      <c r="AQ37" s="71"/>
-      <c r="AR37" s="71"/>
-      <c r="AS37" s="71"/>
-      <c r="AT37" s="71"/>
-      <c r="AU37" s="71"/>
-      <c r="AV37" s="71"/>
-      <c r="AW37" s="71"/>
-      <c r="AX37" s="71"/>
-      <c r="AY37" s="71"/>
-      <c r="AZ37" s="71"/>
-      <c r="BA37" s="71"/>
-      <c r="BB37" s="71"/>
-      <c r="BC37" s="71"/>
-      <c r="BD37" s="71"/>
-      <c r="BE37" s="71"/>
-      <c r="BF37" s="71"/>
-      <c r="BG37" s="71"/>
-      <c r="BH37" s="71"/>
-      <c r="BI37" s="71"/>
-      <c r="BJ37" s="71"/>
-      <c r="BK37" s="71"/>
-      <c r="BL37" s="71"/>
-      <c r="BM37" s="71"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="70"/>
+      <c r="R37" s="70"/>
+      <c r="S37" s="70"/>
+      <c r="T37" s="70"/>
+      <c r="U37" s="70"/>
+      <c r="V37" s="70"/>
+      <c r="W37" s="70"/>
+      <c r="X37" s="70"/>
+      <c r="Y37" s="70"/>
+      <c r="Z37" s="70"/>
+      <c r="AA37" s="70"/>
+      <c r="AB37" s="70"/>
+      <c r="AC37" s="70"/>
+      <c r="AD37" s="70"/>
+      <c r="AE37" s="70"/>
+      <c r="AF37" s="70"/>
+      <c r="AG37" s="70"/>
+      <c r="AH37" s="70"/>
+      <c r="AI37" s="70"/>
+      <c r="AJ37" s="70"/>
+      <c r="AK37" s="70"/>
+      <c r="AL37" s="70"/>
+      <c r="AM37" s="70"/>
+      <c r="AN37" s="70"/>
+      <c r="AO37" s="70"/>
+      <c r="AP37" s="70"/>
+      <c r="AQ37" s="70"/>
+      <c r="AR37" s="70"/>
+      <c r="AS37" s="70"/>
+      <c r="AT37" s="70"/>
+      <c r="AU37" s="70"/>
+      <c r="AV37" s="70"/>
+      <c r="AW37" s="70"/>
+      <c r="AX37" s="70"/>
+      <c r="AY37" s="70"/>
+      <c r="AZ37" s="70"/>
+      <c r="BA37" s="70"/>
+      <c r="BB37" s="70"/>
+      <c r="BC37" s="70"/>
+      <c r="BD37" s="70"/>
+      <c r="BE37" s="70"/>
+      <c r="BF37" s="70"/>
+      <c r="BG37" s="70"/>
+      <c r="BH37" s="70"/>
+      <c r="BI37" s="70"/>
+      <c r="BJ37" s="70"/>
+      <c r="BK37" s="70"/>
+      <c r="BL37" s="70"/>
+      <c r="BM37" s="70"/>
       <c r="BN37" s="21"/>
       <c r="BO37" s="20"/>
       <c r="BP37" s="20"/>
@@ -6343,45 +6356,45 @@
       <c r="A44" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="42" t="s">
+      <c r="C44" s="39"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="44" t="s">
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="44"/>
-      <c r="X44" s="44"/>
-      <c r="Y44" s="45"/>
-      <c r="Z44" s="46" t="s">
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AA44" s="44"/>
-      <c r="AB44" s="44"/>
-      <c r="AC44" s="44"/>
-      <c r="AD44" s="44"/>
-      <c r="AE44" s="44"/>
-      <c r="AF44" s="45"/>
+      <c r="AA44" s="36"/>
+      <c r="AB44" s="36"/>
+      <c r="AC44" s="36"/>
+      <c r="AD44" s="36"/>
+      <c r="AE44" s="36"/>
+      <c r="AF44" s="37"/>
       <c r="AG44" s="6"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="4"/>
@@ -6765,24 +6778,24 @@
       <c r="A50" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="46" t="s">
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="45"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="37"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="2"/>
@@ -7033,348 +7046,362 @@
       <c r="BM53" s="7"/>
     </row>
     <row r="54" spans="1:65">
-      <c r="B54" s="72">
+      <c r="B54" s="62">
         <v>15</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="47">
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="50">
         <v>16</v>
       </c>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="47"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="47">
-        <v>17</v>
-      </c>
-      <c r="S54" s="47"/>
-      <c r="T54" s="47"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
-      <c r="X54" s="47"/>
-      <c r="Y54" s="48"/>
-      <c r="Z54" s="47">
-        <v>18</v>
-      </c>
-      <c r="AA54" s="47"/>
-      <c r="AB54" s="47"/>
-      <c r="AC54" s="47"/>
-      <c r="AD54" s="47"/>
-      <c r="AE54" s="47"/>
-      <c r="AF54" s="47"/>
-      <c r="AG54" s="48"/>
-      <c r="AH54" s="47">
+      <c r="K54" s="50"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="50"/>
+      <c r="Q54" s="51"/>
+      <c r="R54" s="50">
         <v>19</v>
       </c>
-      <c r="AI54" s="47"/>
-      <c r="AJ54" s="47"/>
-      <c r="AK54" s="47"/>
-      <c r="AL54" s="47"/>
-      <c r="AM54" s="47"/>
-      <c r="AN54" s="47"/>
-      <c r="AO54" s="48"/>
-      <c r="AP54" s="47">
+      <c r="S54" s="50"/>
+      <c r="T54" s="50"/>
+      <c r="U54" s="50"/>
+      <c r="V54" s="50"/>
+      <c r="W54" s="50"/>
+      <c r="X54" s="50"/>
+      <c r="Y54" s="51"/>
+      <c r="Z54" s="50">
         <v>20</v>
       </c>
-      <c r="AQ54" s="47"/>
-      <c r="AR54" s="47"/>
-      <c r="AS54" s="47"/>
-      <c r="AT54" s="47"/>
-      <c r="AU54" s="47"/>
-      <c r="AV54" s="47"/>
-      <c r="AW54" s="48"/>
-      <c r="AX54" s="47">
+      <c r="AA54" s="50"/>
+      <c r="AB54" s="50"/>
+      <c r="AC54" s="50"/>
+      <c r="AD54" s="50"/>
+      <c r="AE54" s="50"/>
+      <c r="AF54" s="50"/>
+      <c r="AG54" s="51"/>
+      <c r="AH54" s="50">
+        <v>19</v>
+      </c>
+      <c r="AI54" s="50"/>
+      <c r="AJ54" s="50"/>
+      <c r="AK54" s="50"/>
+      <c r="AL54" s="50"/>
+      <c r="AM54" s="50"/>
+      <c r="AN54" s="50"/>
+      <c r="AO54" s="51"/>
+      <c r="AP54" s="50">
+        <v>20</v>
+      </c>
+      <c r="AQ54" s="50"/>
+      <c r="AR54" s="50"/>
+      <c r="AS54" s="50"/>
+      <c r="AT54" s="50"/>
+      <c r="AU54" s="50"/>
+      <c r="AV54" s="50"/>
+      <c r="AW54" s="51"/>
+      <c r="AX54" s="50">
         <v>21</v>
       </c>
-      <c r="AY54" s="47"/>
-      <c r="AZ54" s="47"/>
-      <c r="BA54" s="47"/>
-      <c r="BB54" s="47"/>
-      <c r="BC54" s="47"/>
-      <c r="BD54" s="47"/>
-      <c r="BE54" s="48"/>
-      <c r="BF54" s="47">
+      <c r="AY54" s="50"/>
+      <c r="AZ54" s="50"/>
+      <c r="BA54" s="50"/>
+      <c r="BB54" s="50"/>
+      <c r="BC54" s="50"/>
+      <c r="BD54" s="50"/>
+      <c r="BE54" s="51"/>
+      <c r="BF54" s="50">
         <v>22</v>
       </c>
-      <c r="BG54" s="47"/>
-      <c r="BH54" s="47"/>
-      <c r="BI54" s="47"/>
-      <c r="BJ54" s="47"/>
-      <c r="BK54" s="47"/>
-      <c r="BL54" s="47"/>
-      <c r="BM54" s="48"/>
+      <c r="BG54" s="50"/>
+      <c r="BH54" s="50"/>
+      <c r="BI54" s="50"/>
+      <c r="BJ54" s="50"/>
+      <c r="BK54" s="50"/>
+      <c r="BL54" s="50"/>
+      <c r="BM54" s="51"/>
     </row>
     <row r="55" spans="1:65">
-      <c r="B55" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="58"/>
-      <c r="L55" s="58"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="58"/>
-      <c r="O55" s="58"/>
-      <c r="P55" s="58"/>
-      <c r="Q55" s="58"/>
-      <c r="R55" s="58"/>
-      <c r="S55" s="58"/>
-      <c r="T55" s="58"/>
-      <c r="U55" s="58"/>
-      <c r="V55" s="58"/>
-      <c r="W55" s="58"/>
-      <c r="X55" s="58"/>
-      <c r="Y55" s="58"/>
-      <c r="Z55" s="58"/>
-      <c r="AA55" s="58"/>
-      <c r="AB55" s="58"/>
-      <c r="AC55" s="58"/>
-      <c r="AD55" s="58"/>
-      <c r="AE55" s="58"/>
-      <c r="AF55" s="58"/>
-      <c r="AG55" s="58"/>
-      <c r="AH55" s="58"/>
-      <c r="AI55" s="58"/>
-      <c r="AJ55" s="58"/>
-      <c r="AK55" s="58"/>
-      <c r="AL55" s="58"/>
-      <c r="AM55" s="58"/>
-      <c r="AN55" s="58"/>
-      <c r="AO55" s="58"/>
-      <c r="AP55" s="58"/>
-      <c r="AQ55" s="58"/>
-      <c r="AR55" s="58"/>
-      <c r="AS55" s="58"/>
-      <c r="AT55" s="58"/>
-      <c r="AU55" s="58"/>
-      <c r="AV55" s="58"/>
-      <c r="AW55" s="58"/>
-      <c r="AX55" s="58"/>
-      <c r="AY55" s="58"/>
-      <c r="AZ55" s="58"/>
-      <c r="BA55" s="58"/>
-      <c r="BB55" s="58"/>
-      <c r="BC55" s="58"/>
-      <c r="BD55" s="58"/>
-      <c r="BE55" s="58"/>
-      <c r="BF55" s="58"/>
-      <c r="BG55" s="58"/>
-      <c r="BH55" s="58"/>
-      <c r="BI55" s="58"/>
-      <c r="BJ55" s="58"/>
-      <c r="BK55" s="58"/>
-      <c r="BL55" s="58"/>
-      <c r="BM55" s="59"/>
+      <c r="B55" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="79"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="79"/>
+      <c r="M55" s="79"/>
+      <c r="N55" s="79"/>
+      <c r="O55" s="79"/>
+      <c r="P55" s="79"/>
+      <c r="Q55" s="79"/>
+      <c r="R55" s="79"/>
+      <c r="S55" s="79"/>
+      <c r="T55" s="79"/>
+      <c r="U55" s="79"/>
+      <c r="V55" s="79"/>
+      <c r="W55" s="79"/>
+      <c r="X55" s="79"/>
+      <c r="Y55" s="79"/>
+      <c r="Z55" s="79"/>
+      <c r="AA55" s="79"/>
+      <c r="AB55" s="79"/>
+      <c r="AC55" s="79"/>
+      <c r="AD55" s="79"/>
+      <c r="AE55" s="79"/>
+      <c r="AF55" s="79"/>
+      <c r="AG55" s="79"/>
+      <c r="AH55" s="79"/>
+      <c r="AI55" s="79"/>
+      <c r="AJ55" s="79"/>
+      <c r="AK55" s="79"/>
+      <c r="AL55" s="79"/>
+      <c r="AM55" s="79"/>
+      <c r="AN55" s="79"/>
+      <c r="AO55" s="79"/>
+      <c r="AP55" s="79"/>
+      <c r="AQ55" s="79"/>
+      <c r="AR55" s="79"/>
+      <c r="AS55" s="79"/>
+      <c r="AT55" s="79"/>
+      <c r="AU55" s="79"/>
+      <c r="AV55" s="79"/>
+      <c r="AW55" s="79"/>
+      <c r="AX55" s="79"/>
+      <c r="AY55" s="79"/>
+      <c r="AZ55" s="79"/>
+      <c r="BA55" s="79"/>
+      <c r="BB55" s="79"/>
+      <c r="BC55" s="79"/>
+      <c r="BD55" s="79"/>
+      <c r="BE55" s="79"/>
+      <c r="BF55" s="79"/>
+      <c r="BG55" s="79"/>
+      <c r="BH55" s="79"/>
+      <c r="BI55" s="79"/>
+      <c r="BJ55" s="79"/>
+      <c r="BK55" s="79"/>
+      <c r="BL55" s="79"/>
+      <c r="BM55" s="80"/>
     </row>
     <row r="56" spans="1:65">
-      <c r="B56" s="60"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="61"/>
-      <c r="M56" s="61"/>
-      <c r="N56" s="61"/>
-      <c r="O56" s="61"/>
-      <c r="P56" s="61"/>
-      <c r="Q56" s="61"/>
-      <c r="R56" s="61"/>
-      <c r="S56" s="61"/>
-      <c r="T56" s="61"/>
-      <c r="U56" s="61"/>
-      <c r="V56" s="61"/>
-      <c r="W56" s="61"/>
-      <c r="X56" s="61"/>
-      <c r="Y56" s="61"/>
-      <c r="Z56" s="61"/>
-      <c r="AA56" s="61"/>
-      <c r="AB56" s="61"/>
-      <c r="AC56" s="61"/>
-      <c r="AD56" s="61"/>
-      <c r="AE56" s="61"/>
-      <c r="AF56" s="61"/>
-      <c r="AG56" s="61"/>
-      <c r="AH56" s="61"/>
-      <c r="AI56" s="61"/>
-      <c r="AJ56" s="61"/>
-      <c r="AK56" s="61"/>
-      <c r="AL56" s="61"/>
-      <c r="AM56" s="61"/>
-      <c r="AN56" s="61"/>
-      <c r="AO56" s="61"/>
-      <c r="AP56" s="61"/>
-      <c r="AQ56" s="61"/>
-      <c r="AR56" s="61"/>
-      <c r="AS56" s="61"/>
-      <c r="AT56" s="61"/>
-      <c r="AU56" s="61"/>
-      <c r="AV56" s="61"/>
-      <c r="AW56" s="61"/>
-      <c r="AX56" s="61"/>
-      <c r="AY56" s="61"/>
-      <c r="AZ56" s="61"/>
-      <c r="BA56" s="61"/>
-      <c r="BB56" s="61"/>
-      <c r="BC56" s="61"/>
-      <c r="BD56" s="61"/>
-      <c r="BE56" s="61"/>
-      <c r="BF56" s="61"/>
-      <c r="BG56" s="61"/>
-      <c r="BH56" s="61"/>
-      <c r="BI56" s="61"/>
-      <c r="BJ56" s="61"/>
-      <c r="BK56" s="61"/>
-      <c r="BL56" s="61"/>
-      <c r="BM56" s="62"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="82"/>
+      <c r="J56" s="82"/>
+      <c r="K56" s="82"/>
+      <c r="L56" s="82"/>
+      <c r="M56" s="82"/>
+      <c r="N56" s="82"/>
+      <c r="O56" s="82"/>
+      <c r="P56" s="82"/>
+      <c r="Q56" s="82"/>
+      <c r="R56" s="82"/>
+      <c r="S56" s="82"/>
+      <c r="T56" s="82"/>
+      <c r="U56" s="82"/>
+      <c r="V56" s="82"/>
+      <c r="W56" s="82"/>
+      <c r="X56" s="82"/>
+      <c r="Y56" s="82"/>
+      <c r="Z56" s="82"/>
+      <c r="AA56" s="82"/>
+      <c r="AB56" s="82"/>
+      <c r="AC56" s="82"/>
+      <c r="AD56" s="82"/>
+      <c r="AE56" s="82"/>
+      <c r="AF56" s="82"/>
+      <c r="AG56" s="82"/>
+      <c r="AH56" s="82"/>
+      <c r="AI56" s="82"/>
+      <c r="AJ56" s="82"/>
+      <c r="AK56" s="82"/>
+      <c r="AL56" s="82"/>
+      <c r="AM56" s="82"/>
+      <c r="AN56" s="82"/>
+      <c r="AO56" s="82"/>
+      <c r="AP56" s="82"/>
+      <c r="AQ56" s="82"/>
+      <c r="AR56" s="82"/>
+      <c r="AS56" s="82"/>
+      <c r="AT56" s="82"/>
+      <c r="AU56" s="82"/>
+      <c r="AV56" s="82"/>
+      <c r="AW56" s="82"/>
+      <c r="AX56" s="82"/>
+      <c r="AY56" s="82"/>
+      <c r="AZ56" s="82"/>
+      <c r="BA56" s="82"/>
+      <c r="BB56" s="82"/>
+      <c r="BC56" s="82"/>
+      <c r="BD56" s="82"/>
+      <c r="BE56" s="82"/>
+      <c r="BF56" s="82"/>
+      <c r="BG56" s="82"/>
+      <c r="BH56" s="82"/>
+      <c r="BI56" s="82"/>
+      <c r="BJ56" s="82"/>
+      <c r="BK56" s="82"/>
+      <c r="BL56" s="82"/>
+      <c r="BM56" s="83"/>
     </row>
     <row r="57" spans="1:65">
-      <c r="B57" s="63"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="64"/>
-      <c r="J57" s="64"/>
-      <c r="K57" s="64"/>
-      <c r="L57" s="64"/>
-      <c r="M57" s="64"/>
-      <c r="N57" s="64"/>
-      <c r="O57" s="64"/>
-      <c r="P57" s="64"/>
-      <c r="Q57" s="64"/>
-      <c r="R57" s="64"/>
-      <c r="S57" s="64"/>
-      <c r="T57" s="64"/>
-      <c r="U57" s="64"/>
-      <c r="V57" s="64"/>
-      <c r="W57" s="64"/>
-      <c r="X57" s="64"/>
-      <c r="Y57" s="64"/>
-      <c r="Z57" s="64"/>
-      <c r="AA57" s="64"/>
-      <c r="AB57" s="64"/>
-      <c r="AC57" s="64"/>
-      <c r="AD57" s="64"/>
-      <c r="AE57" s="64"/>
-      <c r="AF57" s="64"/>
-      <c r="AG57" s="64"/>
-      <c r="AH57" s="64"/>
-      <c r="AI57" s="64"/>
-      <c r="AJ57" s="64"/>
-      <c r="AK57" s="64"/>
-      <c r="AL57" s="64"/>
-      <c r="AM57" s="64"/>
-      <c r="AN57" s="64"/>
-      <c r="AO57" s="64"/>
-      <c r="AP57" s="64"/>
-      <c r="AQ57" s="64"/>
-      <c r="AR57" s="64"/>
-      <c r="AS57" s="64"/>
-      <c r="AT57" s="64"/>
-      <c r="AU57" s="64"/>
-      <c r="AV57" s="64"/>
-      <c r="AW57" s="64"/>
-      <c r="AX57" s="64"/>
-      <c r="AY57" s="64"/>
-      <c r="AZ57" s="64"/>
-      <c r="BA57" s="64"/>
-      <c r="BB57" s="64"/>
-      <c r="BC57" s="64"/>
-      <c r="BD57" s="64"/>
-      <c r="BE57" s="64"/>
-      <c r="BF57" s="64"/>
-      <c r="BG57" s="64"/>
-      <c r="BH57" s="64"/>
-      <c r="BI57" s="64"/>
-      <c r="BJ57" s="64"/>
-      <c r="BK57" s="64"/>
-      <c r="BL57" s="64"/>
-      <c r="BM57" s="65"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="85"/>
+      <c r="J57" s="85"/>
+      <c r="K57" s="85"/>
+      <c r="L57" s="85"/>
+      <c r="M57" s="85"/>
+      <c r="N57" s="85"/>
+      <c r="O57" s="85"/>
+      <c r="P57" s="85"/>
+      <c r="Q57" s="85"/>
+      <c r="R57" s="85"/>
+      <c r="S57" s="85"/>
+      <c r="T57" s="85"/>
+      <c r="U57" s="85"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
+      <c r="X57" s="85"/>
+      <c r="Y57" s="85"/>
+      <c r="Z57" s="85"/>
+      <c r="AA57" s="85"/>
+      <c r="AB57" s="85"/>
+      <c r="AC57" s="85"/>
+      <c r="AD57" s="85"/>
+      <c r="AE57" s="85"/>
+      <c r="AF57" s="85"/>
+      <c r="AG57" s="85"/>
+      <c r="AH57" s="85"/>
+      <c r="AI57" s="85"/>
+      <c r="AJ57" s="85"/>
+      <c r="AK57" s="85"/>
+      <c r="AL57" s="85"/>
+      <c r="AM57" s="85"/>
+      <c r="AN57" s="85"/>
+      <c r="AO57" s="85"/>
+      <c r="AP57" s="85"/>
+      <c r="AQ57" s="85"/>
+      <c r="AR57" s="85"/>
+      <c r="AS57" s="85"/>
+      <c r="AT57" s="85"/>
+      <c r="AU57" s="85"/>
+      <c r="AV57" s="85"/>
+      <c r="AW57" s="85"/>
+      <c r="AX57" s="85"/>
+      <c r="AY57" s="85"/>
+      <c r="AZ57" s="85"/>
+      <c r="BA57" s="85"/>
+      <c r="BB57" s="85"/>
+      <c r="BC57" s="85"/>
+      <c r="BD57" s="85"/>
+      <c r="BE57" s="85"/>
+      <c r="BF57" s="85"/>
+      <c r="BG57" s="85"/>
+      <c r="BH57" s="85"/>
+      <c r="BI57" s="85"/>
+      <c r="BJ57" s="85"/>
+      <c r="BK57" s="85"/>
+      <c r="BL57" s="85"/>
+      <c r="BM57" s="86"/>
     </row>
     <row r="65" spans="3:10" ht="36" customHeight="1">
-      <c r="C65" s="83" t="s">
+      <c r="C65" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="41"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="40"/>
     </row>
     <row r="66" spans="3:10" ht="34.15" customHeight="1">
-      <c r="C66" s="54" t="s">
+      <c r="C66" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+      <c r="J66" s="52"/>
     </row>
     <row r="67" spans="3:10" ht="34.15" customHeight="1">
-      <c r="C67" s="74" t="s">
+      <c r="C67" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D67" s="75"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="76"/>
-      <c r="G67" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H67" s="78"/>
-      <c r="I67" s="78"/>
-      <c r="J67" s="79"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="Y25:AD25"/>
-    <mergeCell ref="N3:Y3"/>
-    <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="K50:O50"/>
-    <mergeCell ref="Z34:AG34"/>
-    <mergeCell ref="AH34:AO34"/>
-    <mergeCell ref="AE6:AM6"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="I25:Q25"/>
-    <mergeCell ref="AN6:AU6"/>
+    <mergeCell ref="E44:O44"/>
+    <mergeCell ref="P44:Y44"/>
+    <mergeCell ref="Z44:AF44"/>
+    <mergeCell ref="AX34:BE34"/>
+    <mergeCell ref="BF34:BM34"/>
+    <mergeCell ref="AP34:AW34"/>
+    <mergeCell ref="BF27:BL27"/>
+    <mergeCell ref="U28:AD28"/>
+    <mergeCell ref="AN9:AQ9"/>
+    <mergeCell ref="AR9:AW9"/>
+    <mergeCell ref="AE27:AG27"/>
+    <mergeCell ref="AH27:AT27"/>
+    <mergeCell ref="AN28:AS28"/>
+    <mergeCell ref="AE28:AM28"/>
+    <mergeCell ref="R25:X25"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="B55:BM57"/>
+    <mergeCell ref="B35:BM37"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="J54:Q54"/>
+    <mergeCell ref="R54:Y54"/>
+    <mergeCell ref="Z54:AG54"/>
+    <mergeCell ref="AH54:AO54"/>
+    <mergeCell ref="AP54:AW54"/>
+    <mergeCell ref="AX54:BE54"/>
+    <mergeCell ref="BF54:BM54"/>
+    <mergeCell ref="AH14:AO14"/>
+    <mergeCell ref="AP14:AW14"/>
+    <mergeCell ref="I2:S2"/>
     <mergeCell ref="T2:X2"/>
     <mergeCell ref="Z6:AD6"/>
     <mergeCell ref="C67:F67"/>
@@ -7391,42 +7418,28 @@
     <mergeCell ref="J14:Q14"/>
     <mergeCell ref="R14:Y14"/>
     <mergeCell ref="I3:M3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="B55:BM57"/>
-    <mergeCell ref="B35:BM37"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="J54:Q54"/>
-    <mergeCell ref="R54:Y54"/>
-    <mergeCell ref="Z54:AG54"/>
-    <mergeCell ref="AH54:AO54"/>
-    <mergeCell ref="AP54:AW54"/>
-    <mergeCell ref="AX54:BE54"/>
-    <mergeCell ref="BF54:BM54"/>
-    <mergeCell ref="AH14:AO14"/>
-    <mergeCell ref="AP14:AW14"/>
-    <mergeCell ref="I2:S2"/>
+    <mergeCell ref="N3:Y3"/>
+    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="K50:O50"/>
+    <mergeCell ref="Z34:AG34"/>
+    <mergeCell ref="AH34:AO34"/>
+    <mergeCell ref="AE6:AM6"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="I25:Q25"/>
+    <mergeCell ref="AN6:AU6"/>
     <mergeCell ref="AU27:BE27"/>
-    <mergeCell ref="BF27:BL27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:AD28"/>
-    <mergeCell ref="AN9:AQ9"/>
-    <mergeCell ref="AR9:AW9"/>
-    <mergeCell ref="AE27:AG27"/>
-    <mergeCell ref="AH27:AT27"/>
-    <mergeCell ref="AN28:AS28"/>
-    <mergeCell ref="AE28:AM28"/>
-    <mergeCell ref="R25:X25"/>
     <mergeCell ref="AU30:AW30"/>
     <mergeCell ref="AX30:BM30"/>
     <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:O44"/>
-    <mergeCell ref="P44:Y44"/>
-    <mergeCell ref="Z44:AF44"/>
-    <mergeCell ref="AX34:BE34"/>
-    <mergeCell ref="BF34:BM34"/>
-    <mergeCell ref="AP34:AW34"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="Y25:AD25"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="R28:T28"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7435,20 +7448,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="84bae827-43eb-4799-b986-0b4b10c2bedf" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="84bae827-43eb-4799-b986-0b4b10c2bedf" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7663,11 +7676,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9E064F5-287A-4749-B81B-14A9CFF48002}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F033DEB-E0CE-477C-A830-2CEC4FBEB4C7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F033DEB-E0CE-477C-A830-2CEC4FBEB4C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9E064F5-287A-4749-B81B-14A9CFF48002}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
